--- a/Base/Teams/Patriots/Players Data.xlsx
+++ b/Base/Teams/Patriots/Players Data.xlsx
@@ -484,7 +484,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -498,13 +498,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>33</v>
@@ -538,16 +538,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -584,10 +584,10 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -658,7 +658,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -792,10 +792,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -818,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>25</v>
@@ -974,10 +974,10 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>8</v>

--- a/Base/Teams/Patriots/Players Data.xlsx
+++ b/Base/Teams/Patriots/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -53,6 +53,9 @@
     <t>N.Agholor</t>
   </si>
   <si>
+    <t>J.Meyers</t>
+  </si>
+  <si>
     <t>K.Bourne</t>
   </si>
   <si>
@@ -78,9 +81,6 @@
   </si>
   <si>
     <t>RZ Comp</t>
-  </si>
-  <si>
-    <t>J.Meyers</t>
   </si>
   <si>
     <t>G.Olszewski</t>
@@ -447,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,7 +478,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -581,13 +581,13 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -618,16 +618,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -638,16 +638,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -658,16 +658,36 @@
         <v>14</v>
       </c>
       <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>2</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -688,22 +708,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -740,10 +760,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -792,10 +812,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -818,13 +838,13 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>8</v>
@@ -841,22 +861,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>9</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -867,19 +887,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -896,7 +916,7 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -922,19 +942,19 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -945,7 +965,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -971,16 +991,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -1000,22 +1020,22 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>18</v>
+      </c>
+      <c r="H13">
         <v>9</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13">
-        <v>14</v>
-      </c>
-      <c r="H13">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Patriots/Players Data.xlsx
+++ b/Base/Teams/Patriots/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -59,7 +59,10 @@
     <t>K.Bourne</t>
   </si>
   <si>
-    <t>J.Johnson</t>
+    <t>G.Olszewski</t>
+  </si>
+  <si>
+    <t>Jak.Johnson</t>
   </si>
   <si>
     <t>J.Smith</t>
@@ -81,9 +84,6 @@
   </si>
   <si>
     <t>RZ Comp</t>
-  </si>
-  <si>
-    <t>G.Olszewski</t>
   </si>
   <si>
     <t>N.Harry</t>
@@ -447,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,13 +478,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -498,16 +498,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -581,10 +581,10 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -678,15 +678,35 @@
         <v>15</v>
       </c>
       <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>4</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>2</v>
       </c>
     </row>
@@ -708,22 +728,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -734,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -812,10 +832,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -824,10 +844,10 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -864,22 +884,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D7">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -890,16 +910,16 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -913,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -942,13 +962,13 @@
         <v>23</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
         <v>7</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -965,13 +985,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
         <v>3</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -991,7 +1011,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>34</v>
@@ -1020,13 +1040,13 @@
         <v>24</v>
       </c>
       <c r="C13">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F13">
         <v>6</v>

--- a/Base/Teams/Patriots/Players Data.xlsx
+++ b/Base/Teams/Patriots/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>N.Harry</t>
+  </si>
+  <si>
+    <t>K.Wilkerson</t>
   </si>
   <si>
     <t>H.Henry</t>
@@ -481,7 +484,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>16</v>
@@ -498,16 +501,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D3">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -538,16 +541,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -578,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -638,16 +641,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -701,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -717,7 +720,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -754,10 +757,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -832,10 +835,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -884,10 +887,10 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D7">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -896,10 +899,10 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -910,22 +913,22 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
         <v>4</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -936,10 +939,10 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1011,25 +1014,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1037,24 +1040,50 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>58</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
         <v>6</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>18</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>9</v>
       </c>
     </row>

--- a/Base/Teams/Patriots/Players Data.xlsx
+++ b/Base/Teams/Patriots/Players Data.xlsx
@@ -481,13 +481,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>6</v>
@@ -501,16 +501,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D3">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -541,16 +541,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D5">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -581,16 +581,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -641,10 +641,10 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -757,10 +757,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -783,10 +783,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -795,10 +795,10 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -835,22 +835,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -861,16 +861,16 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -887,22 +887,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D7">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>17</v>
+      </c>
+      <c r="H7">
         <v>10</v>
-      </c>
-      <c r="G7">
-        <v>13</v>
-      </c>
-      <c r="H7">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -913,22 +913,22 @@
         <v>13</v>
       </c>
       <c r="C8">
+        <v>62</v>
+      </c>
+      <c r="D8">
         <v>51</v>
       </c>
-      <c r="D8">
-        <v>42</v>
-      </c>
       <c r="E8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -971,7 +971,7 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -991,7 +991,7 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1069,19 +1069,19 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D14">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14">
         <v>9</v>
